--- a/data-graph-MUSC/LKP_MASTER_RiskTo85ForGraph_DRHughes.xlsx
+++ b/data-graph-MUSC/LKP_MASTER_RiskTo85ForGraph_DRHughes.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zach/src/_-MUSC/graph-musc/data-graph-MUSC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F2715DB6-570C-F842-A830-80BB66F5F6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC325195-2E4E-6F40-8B6B-FE22D1A261BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9500" yWindow="5900" windowWidth="27640" windowHeight="16940"/>
+    <workbookView xWindow="4820" yWindow="540" windowWidth="33340" windowHeight="24660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="To be updated" sheetId="2" r:id="rId1"/>
@@ -18,12 +18,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'To be updated'!$A$1:$C$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>gene</t>
   </si>
@@ -89,12 +102,36 @@
   </si>
   <si>
     <t>TP53</t>
+  </si>
+  <si>
+    <t>Uterus</t>
+  </si>
+  <si>
+    <t>Skin</t>
+  </si>
+  <si>
+    <t>Small Bowel</t>
+  </si>
+  <si>
+    <t>Liver</t>
+  </si>
+  <si>
+    <t>Nerve</t>
+  </si>
+  <si>
+    <t>Soft Tissue</t>
+  </si>
+  <si>
+    <t>Blood</t>
+  </si>
+  <si>
+    <t>Bone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -928,15 +965,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -958,6 +996,9 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -966,6 +1007,9 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -974,6 +1018,9 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -982,6 +1029,9 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -990,6 +1040,9 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -998,6 +1051,9 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1006,6 +1062,9 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -1014,6 +1073,9 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -1022,6 +1084,9 @@
       <c r="B10" t="s">
         <v>7</v>
       </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1030,6 +1095,9 @@
       <c r="B11" t="s">
         <v>12</v>
       </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1038,6 +1106,9 @@
       <c r="B12" t="s">
         <v>14</v>
       </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1046,6 +1117,9 @@
       <c r="B13" t="s">
         <v>7</v>
       </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1054,6 +1128,9 @@
       <c r="B14" t="s">
         <v>19</v>
       </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1062,6 +1139,9 @@
       <c r="B15" t="s">
         <v>4</v>
       </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1070,25 +1150,34 @@
       <c r="B16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1"/>
+  <autoFilter ref="A1:C1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>